--- a/logs_classification/results.xlsx
+++ b/logs_classification/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -879,6 +879,206 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-02-08_16-28-04</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>128</v>
+      </c>
+      <c r="D10" t="n">
+        <v>240</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>0.9972253052164262</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>20</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-02-08_17-05-10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>128</v>
+      </c>
+      <c r="D11" t="n">
+        <v>240</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>0.9977802441731409</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>20</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-02-08_17-41-53</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>128</v>
+      </c>
+      <c r="D12" t="n">
+        <v>240</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>0.9988901220865705</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>20</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-02-08_18-16-13</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>128</v>
+      </c>
+      <c r="D13" t="n">
+        <v>240</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>0.9977802441731409</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>20</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-02-08_18-57-54</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>128</v>
+      </c>
+      <c r="D14" t="n">
+        <v>240</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>0.9983351831298557</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>20</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_classification/results.xlsx
+++ b/logs_classification/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1079,6 +1079,46 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-02-08_19-35-20</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>128</v>
+      </c>
+      <c r="D15" t="n">
+        <v>240</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>0.9977802441731409</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>20</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_classification/results.xlsx
+++ b/logs_classification/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1119,6 +1119,46 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-02-08_20-11-29</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>128</v>
+      </c>
+      <c r="D16" t="n">
+        <v>240</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>0.9977802441731409</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>20</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_classification/results.xlsx
+++ b/logs_classification/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1159,6 +1159,46 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-02-08_23-48-00</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>128</v>
+      </c>
+      <c r="D17" t="n">
+        <v>240</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>0.9039955604883463</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>5</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_classification/results.xlsx
+++ b/logs_classification/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1199,6 +1199,406 @@
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-02-09_00-28-41</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>128</v>
+      </c>
+      <c r="D18" t="n">
+        <v>240</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>0.9961154273029966</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>100</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-02-09_01-47-43</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>128</v>
+      </c>
+      <c r="D19" t="n">
+        <v>240</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>0.9944506104328524</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>100</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-02-09_03-06-28</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>128</v>
+      </c>
+      <c r="D20" t="n">
+        <v>240</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>0.9561598224195339</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>100</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-02-09_04-26-28</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>128</v>
+      </c>
+      <c r="D21" t="n">
+        <v>240</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>0.9955604883462819</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>100</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-02-09_05-46-31</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>128</v>
+      </c>
+      <c r="D22" t="n">
+        <v>240</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>0.9927857935627081</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>100</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-02-09_07-06-19</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>128</v>
+      </c>
+      <c r="D23" t="n">
+        <v>240</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>0.9966703662597114</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>100</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-02-09_08-26-18</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>128</v>
+      </c>
+      <c r="D24" t="n">
+        <v>240</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>0.9605993340732519</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>100</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-02-09_09-46-19</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>128</v>
+      </c>
+      <c r="D25" t="n">
+        <v>240</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>0.9855715871254163</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>100</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-02-09_11-16-04</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>128</v>
+      </c>
+      <c r="D26" t="n">
+        <v>240</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>0.9889012208657048</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>100</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-02-09_12-39-11</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>128</v>
+      </c>
+      <c r="D27" t="n">
+        <v>240</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>0.9916759156492786</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>100</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_classification/results.xlsx
+++ b/logs_classification/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1599,6 +1599,206 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
     </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024-02-09_13-58-57</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>128</v>
+      </c>
+      <c r="D28" t="n">
+        <v>240</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>0.9922308546059934</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>100</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-02-09_15-21-03</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>128</v>
+      </c>
+      <c r="D29" t="n">
+        <v>240</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>0.9822419533851277</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>100</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-02-09_16-40-40</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>128</v>
+      </c>
+      <c r="D30" t="n">
+        <v>240</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>0.9950055493895672</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>100</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-02-09_18-01-55</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>128</v>
+      </c>
+      <c r="D31" t="n">
+        <v>240</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>0.9944506104328524</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>100</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-02-09_19-21-32</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>128</v>
+      </c>
+      <c r="D32" t="n">
+        <v>240</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>0.9228634850166482</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>100</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs_classification/results.xlsx
+++ b/logs_classification/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1799,6 +1799,246 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
     </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-02-09_20-42-48</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>128</v>
+      </c>
+      <c r="D33" t="n">
+        <v>240</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>0.9728079911209767</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>100</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-02-09_22-04-07</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>128</v>
+      </c>
+      <c r="D34" t="n">
+        <v>240</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>0.9911209766925638</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>100</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-02-09_23-34-23</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>128</v>
+      </c>
+      <c r="D35" t="n">
+        <v>240</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>0.983906770255272</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>100</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-02-10_01-02-54</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>128</v>
+      </c>
+      <c r="D36" t="n">
+        <v>240</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>0.9922308546059934</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>100</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-02-10_02-24-35</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>128</v>
+      </c>
+      <c r="D37" t="n">
+        <v>240</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>0.9889012208657048</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>100</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-02-10_03-44-13</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>EfficientNet-B1</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>128</v>
+      </c>
+      <c r="D38" t="n">
+        <v>240</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>0.9977802441731409</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>100</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>PyTorch</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
